--- a/Text/L'Hospital/Remonstrances/final/Remonstrances_corrected_spellcheck_data.xlsx
+++ b/Text/L'Hospital/Remonstrances/final/Remonstrances_corrected_spellcheck_data.xlsx
@@ -3401,7 +3401,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>desdicts</t>
+          <t>desirent</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -3411,7 +3411,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>desirent</t>
+          <t>despensent</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -3421,7 +3421,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>despensent</t>
+          <t>desquelles</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -3431,7 +3431,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>desquelles</t>
+          <t>desquels</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -3441,7 +3441,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>desquels</t>
+          <t>desquelz</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -3451,7 +3451,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>desquelz</t>
+          <t>dessus</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -3461,7 +3461,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>dessus</t>
+          <t>destituer</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -3471,7 +3471,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>destituer</t>
+          <t>deue</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -3481,7 +3481,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>deue</t>
+          <t>deus</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -3491,7 +3491,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>deus</t>
+          <t>deussent</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3501,7 +3501,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>deussent</t>
+          <t>deust</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -3511,7 +3511,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>deust</t>
+          <t>deux</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -3521,7 +3521,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>deux</t>
+          <t>devant</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -3531,7 +3531,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>devant</t>
+          <t>devers</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3541,7 +3541,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>devers</t>
+          <t>diadesme</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -3551,7 +3551,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>diadesme</t>
+          <t>dict</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -3561,7 +3561,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>dicts</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -3571,7 +3571,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>dicts</t>
+          <t>dient</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -3581,7 +3581,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>dient</t>
+          <t>dieu</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -3591,7 +3591,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>dieu</t>
+          <t>dieux</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -3601,7 +3601,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>dieux</t>
+          <t>diffi</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3611,7 +3611,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>diffi</t>
+          <t>difficulté</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -3621,7 +3621,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>difficulté</t>
+          <t>différend</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -3631,7 +3631,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>différend</t>
+          <t>différends</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -3641,7 +3641,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>différends</t>
+          <t>différer</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -3651,7 +3651,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>différer</t>
+          <t>digne</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3661,7 +3661,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>digne</t>
+          <t>dignes</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3671,7 +3671,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>dignes</t>
+          <t>dignitate</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -3681,7 +3681,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>dignitate</t>
+          <t>dignité</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -3691,7 +3691,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>dignité</t>
+          <t>diligemment</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -3701,7 +3701,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>diligemment</t>
+          <t>diligens</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -3711,7 +3711,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>diligens</t>
+          <t>diligentia</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -3721,7 +3721,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>diligentia</t>
+          <t>diminue</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -3731,7 +3731,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>diminue</t>
+          <t>diminuer</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -3741,7 +3741,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>diminuer</t>
+          <t>diminué</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3751,7 +3751,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>diminué</t>
+          <t>diray</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -3761,7 +3761,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>diray</t>
+          <t>discorde</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -3771,7 +3771,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>discorde</t>
+          <t>discours</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -3781,7 +3781,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>discours</t>
+          <t>disent</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -3791,7 +3791,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>disent</t>
+          <t>disners</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -3801,7 +3801,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>disners</t>
+          <t>disoit</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -3811,7 +3811,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>disoit</t>
+          <t>dissen</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -3821,7 +3821,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>dissen</t>
+          <t>distinctes</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -3831,7 +3831,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>distinctes</t>
+          <t>distribuer</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -3841,7 +3841,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>distribuer</t>
+          <t>distribué</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -3851,7 +3851,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>distribué</t>
+          <t>dition</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -3861,7 +3861,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>dition</t>
+          <t>diversitez</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -3871,7 +3871,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>diversitez</t>
+          <t>divinam</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -3881,7 +3881,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>divinam</t>
+          <t>dlesdicts</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -14879,7 +14879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B891"/>
+  <dimension ref="A1:B889"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14894,7 +14894,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>77.58</v>
+        <v>77.63</v>
       </c>
     </row>
     <row r="2">
@@ -16566,7 +16566,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>concile</t>
+          <t>concorde</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -16576,7 +16576,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>concorde</t>
+          <t>conduire</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -16586,7 +16586,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>conduire</t>
+          <t>congnoissant</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -16596,7 +16596,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>congnoissant</t>
+          <t>congnoissent</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -16606,7 +16606,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>congnoissent</t>
+          <t>congnoistre</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -16616,7 +16616,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>congnoistre</t>
+          <t>connivence</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -16626,7 +16626,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>connivence</t>
+          <t>conseil</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -16636,7 +16636,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>conseil</t>
+          <t>conseiller</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -16646,7 +16646,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>conseiller</t>
+          <t>conseillerz</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -16656,7 +16656,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>conseillerz</t>
+          <t>considérait</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -16666,7 +16666,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>considérait</t>
+          <t>considérant</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -16676,7 +16676,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>considérant</t>
+          <t>constituées</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -16686,7 +16686,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>constituées</t>
+          <t>contens</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -16696,7 +16696,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>contens</t>
+          <t>contenter</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -16706,7 +16706,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>contenter</t>
+          <t>contentoit</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -16716,7 +16716,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>contentoit</t>
+          <t>contineue</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -16726,7 +16726,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>contineue</t>
+          <t>contrainct</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -16736,7 +16736,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>contrainct</t>
+          <t>contrariété</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -16746,7 +16746,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>contrariété</t>
+          <t>contre</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -16756,7 +16756,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>contre</t>
+          <t>copistes</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -16766,7 +16766,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>copistes</t>
+          <t>corrompeuz</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -16776,7 +16776,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>corrompeuz</t>
+          <t>cour</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -16786,7 +16786,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>cour</t>
+          <t>courent</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -16796,7 +16796,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>courent</t>
+          <t>couronne</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -16806,7 +16806,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>couronne</t>
+          <t>couseiller</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -16816,7 +16816,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>couseiller</t>
+          <t>coys</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -16826,7 +16826,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>coys</t>
+          <t>craignans</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -16836,7 +16836,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>craignans</t>
+          <t>craindre</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -16846,7 +16846,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>craindre</t>
+          <t>craint</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -16856,7 +16856,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>craint</t>
+          <t>creu</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -16866,7 +16866,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>creu</t>
+          <t>creue</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -16876,7 +16876,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>creue</t>
+          <t>crient</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -16886,7 +16886,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>crient</t>
+          <t>criminelz</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -16896,7 +16896,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>criminelz</t>
+          <t>crocheteurs</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -16906,7 +16906,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>crocheteurs</t>
+          <t>croyt</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -16916,7 +16916,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>croyt</t>
+          <t>crrounv</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -16926,7 +16926,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>crrounv</t>
+          <t>créa</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -16936,7 +16936,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>créa</t>
+          <t>créanciers</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -16946,7 +16946,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>créanciers</t>
+          <t>cun</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -16956,7 +16956,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>cun</t>
+          <t>cuydent</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -16966,7 +16966,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>cuydent</t>
+          <t>cy</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -16976,7 +16976,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>cy</t>
+          <t>cès</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -16986,7 +16986,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>cès</t>
+          <t>céans</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -16996,7 +16996,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>céans</t>
+          <t>dange</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -17006,7 +17006,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>dange</t>
+          <t>dangereuse</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -17016,7 +17016,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>dangereuse</t>
+          <t>dans</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -17026,7 +17026,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>dans</t>
+          <t>debtes</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -17036,7 +17036,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>debtes</t>
+          <t>debvoir</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -17046,7 +17046,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>debvoir</t>
+          <t>deffault</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -17056,7 +17056,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>deffault</t>
+          <t>demeurant</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -17066,7 +17066,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>demeurant</t>
+          <t>demeuré</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -17076,7 +17076,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>demeuré</t>
+          <t>des</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -17086,7 +17086,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>des</t>
+          <t>despuis</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -17096,7 +17096,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>desdictz</t>
+          <t>desrober</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -17106,7 +17106,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>despuis</t>
+          <t>deu</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -17116,7 +17116,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>desrober</t>
+          <t>deux</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -17126,7 +17126,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>deu</t>
+          <t>deuz</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -17136,7 +17136,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>deux</t>
+          <t>devant</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -17146,7 +17146,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>deuz</t>
+          <t>devroit</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -17156,7 +17156,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>devant</t>
+          <t>dict</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -17166,7 +17166,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>devroit</t>
+          <t>dicte</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -17176,7 +17176,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>dieu</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -17186,7 +17186,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>dicte</t>
+          <t>difficultez</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -17196,7 +17196,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>dieu</t>
+          <t>dignité</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -17206,7 +17206,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>difficultez</t>
+          <t>dimi</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -17216,7 +17216,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>dignité</t>
+          <t>diminuent</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -17226,7 +17226,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>dimi</t>
+          <t>diminuer</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -17236,7 +17236,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>diminuent</t>
+          <t>disait</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -17246,7 +17246,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>diminuer</t>
+          <t>discorde</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -17256,7 +17256,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>disait</t>
+          <t>discordes</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -17266,7 +17266,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>discorde</t>
+          <t>disoit</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -17276,7 +17276,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>discordes</t>
+          <t>dispensez</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -17286,7 +17286,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>disoit</t>
+          <t>dix</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -17296,7 +17296,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>dispensez</t>
+          <t>dixmes</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -17306,7 +17306,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>dix</t>
+          <t>dlesdictz</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -17316,7 +17316,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>dixmes</t>
+          <t>doibt</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -17326,7 +17326,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>doibt</t>
+          <t>doivent</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -17336,7 +17336,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>doivent</t>
+          <t>domesticos</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -17346,7 +17346,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>domesticos</t>
+          <t>domesticques</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -17356,7 +17356,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>domesticques</t>
+          <t>donner</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -17366,7 +17366,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>donner</t>
+          <t>donnez</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -17376,7 +17376,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>donnez</t>
+          <t>dont</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -17386,7 +17386,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>dont</t>
+          <t>doulcement</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -17396,7 +17396,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>doulcement</t>
+          <t>doulz</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -17406,7 +17406,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>doulz</t>
+          <t>doute</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -17416,7 +17416,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>doute</t>
+          <t>doybt</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -17426,7 +17426,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>doybt</t>
+          <t>doyt</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -17436,7 +17436,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>doyt</t>
+          <t>dra</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -17446,7 +17446,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>dra</t>
+          <t>du</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -17456,7 +17456,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>du</t>
+          <t>dudict</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -17466,7 +17466,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>dudict</t>
+          <t>dupré</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -17476,7 +17476,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>dupré</t>
+          <t>dyminuer</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -17486,7 +17486,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>dyminuer</t>
+          <t>dé</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -17496,7 +17496,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>dé</t>
+          <t>débats</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -17506,7 +17506,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>débats</t>
+          <t>déclare</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -17516,7 +17516,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>déclare</t>
+          <t>déclarent</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -17526,7 +17526,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>déclarent</t>
+          <t>défigurés</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -17536,7 +17536,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>défigurés</t>
+          <t>déliberé</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -17546,7 +17546,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>déliberé</t>
+          <t>délibérer</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -17556,7 +17556,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>délibérer</t>
+          <t>démourans</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -17566,7 +17566,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>démourans</t>
+          <t>désire</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -17576,7 +17576,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>désire</t>
+          <t>désordre</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -17586,7 +17586,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>désordre</t>
+          <t>désunion</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -17596,7 +17596,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>désunion</t>
+          <t>elle</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -17606,7 +17606,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>elle</t>
+          <t>elles</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -17616,7 +17616,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>elles</t>
+          <t>embrassé</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -17626,7 +17626,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>embrassé</t>
+          <t>embroullée</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -17636,7 +17636,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>embroullée</t>
+          <t>empes</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -17646,7 +17646,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>empes</t>
+          <t>empeschée</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -17656,7 +17656,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>empeschée</t>
+          <t>endroits</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -17666,7 +17666,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>endroits</t>
+          <t>engendrez</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -17676,7 +17676,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>engendrez</t>
+          <t>enquérir</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -17686,7 +17686,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>enquérir</t>
+          <t>enseigner</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -17696,7 +17696,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>enseigner</t>
+          <t>enten</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -17706,7 +17706,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>enten</t>
+          <t>entend</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -17716,7 +17716,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>entend</t>
+          <t>entendeu</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -17726,7 +17726,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>entendeu</t>
+          <t>entendu</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -17736,7 +17736,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>entendu</t>
+          <t>entrainaient</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -17746,7 +17746,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>entrainaient</t>
+          <t>entre</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -17756,7 +17756,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>entre</t>
+          <t>entreprenoit</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -17766,7 +17766,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>entreprenoit</t>
+          <t>entrer</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -17776,7 +17776,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>entrer</t>
+          <t>entretenir</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -17786,7 +17786,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>entretenir</t>
+          <t>envye</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -17796,7 +17796,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>envye</t>
+          <t>erreur</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -17806,7 +17806,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>erreur</t>
+          <t>erreurs</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -17816,7 +17816,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>erreurs</t>
+          <t>esbahir</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -17826,7 +17826,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>esbahir</t>
+          <t>eschappe</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -17836,7 +17836,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>eschappe</t>
+          <t>escosse</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -17846,7 +17846,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>escosse</t>
+          <t>escu</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -17856,7 +17856,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>escu</t>
+          <t>escuz</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -17866,7 +17866,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>escuz</t>
+          <t>esperit</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -17876,7 +17876,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>esperit</t>
+          <t>espys</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -17886,7 +17886,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>espys</t>
+          <t>espère</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -17896,7 +17896,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>espère</t>
+          <t>espére</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -17906,7 +17906,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>espére</t>
+          <t>essai</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -17916,7 +17916,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>essai</t>
+          <t>est</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -17926,7 +17926,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>est</t>
+          <t>estait</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -17936,7 +17936,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>estait</t>
+          <t>estans</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -17946,7 +17946,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>estans</t>
+          <t>estant</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -17956,7 +17956,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>estant</t>
+          <t>estat</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -17966,7 +17966,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>estat</t>
+          <t>estatz</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -17976,7 +17976,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>estatz</t>
+          <t>estime</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -17986,7 +17986,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>estime</t>
+          <t>estimer</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -17996,7 +17996,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>estimer</t>
+          <t>estoient</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -18006,7 +18006,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>estoient</t>
+          <t>estoit</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -18016,7 +18016,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>estoit</t>
+          <t>estre</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -18026,7 +18026,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>estre</t>
+          <t>esté</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -18036,7 +18036,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>esté</t>
+          <t>etla</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -18046,7 +18046,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>etla</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -18056,7 +18056,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>eulx</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -18066,7 +18066,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>eulx</t>
+          <t>eux</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -18076,7 +18076,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>eux</t>
+          <t>excellents</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -18086,7 +18086,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>excellents</t>
+          <t>exemple</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -18096,7 +18096,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>exemple</t>
+          <t>exemples</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -18106,7 +18106,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>exemples</t>
+          <t>exemplis</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -18116,7 +18116,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>exemplis</t>
+          <t>exempte</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -18126,7 +18126,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>exempte</t>
+          <t>existait</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -18136,7 +18136,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>existait</t>
+          <t>expliqua</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -18146,7 +18146,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>expliqua</t>
+          <t>exécutions</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -18156,7 +18156,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>exécutions</t>
+          <t>facent</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -18166,7 +18166,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>facent</t>
+          <t>facon</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -18176,7 +18176,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>facon</t>
+          <t>faict</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -18186,7 +18186,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>faict</t>
+          <t>faictes</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -18196,7 +18196,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>faictes</t>
+          <t>faire</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -18206,7 +18206,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>faire</t>
+          <t>faires</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -18216,7 +18216,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>faires</t>
+          <t>faisoit</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -18226,7 +18226,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>faisoit</t>
+          <t>fait</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -18236,7 +18236,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>fait</t>
+          <t>fallait</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -18246,7 +18246,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>fallait</t>
+          <t>fallu</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -18256,7 +18256,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>fallu</t>
+          <t>famille</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -18266,7 +18266,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>famille</t>
+          <t>familles</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -18276,7 +18276,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>familles</t>
+          <t>faulte</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -18286,7 +18286,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>faulte</t>
+          <t>faultes</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -18296,7 +18296,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>faultes</t>
+          <t>faut</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -18306,7 +18306,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>faut</t>
+          <t>favoriser</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -18316,7 +18316,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>favoriser</t>
+          <t>fera</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -18326,7 +18326,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>fera</t>
+          <t>fermer</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -18336,7 +18336,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>fermer</t>
+          <t>feront</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -18346,7 +18346,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>feront</t>
+          <t>feust</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -18356,7 +18356,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>feust</t>
+          <t>feuz</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -18366,7 +18366,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>feuz</t>
+          <t>fidelle</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -18376,7 +18376,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>fidelle</t>
+          <t>fience</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -18386,7 +18386,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>fience</t>
+          <t>fier</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -18396,7 +18396,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>fier</t>
+          <t>fiteroient</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -18406,7 +18406,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>fiteroient</t>
+          <t>flandres</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -18416,7 +18416,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>flandres</t>
+          <t>fleurissent</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -18426,7 +18426,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>fleurissent</t>
+          <t>fois</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -18436,7 +18436,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>fois</t>
+          <t>forsbourgs</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -18446,7 +18446,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>forsbourgs</t>
+          <t>fran</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -18456,7 +18456,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>fran</t>
+          <t>franchement</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -18466,7 +18466,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>franchement</t>
+          <t>francois</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -18476,7 +18476,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>francois</t>
+          <t>francoys</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -18486,7 +18486,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>francoys</t>
+          <t>frappent</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -18496,7 +18496,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>frappent</t>
+          <t>fraudes</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -18506,7 +18506,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>fraudes</t>
+          <t>froides</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -18516,7 +18516,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>froides</t>
+          <t>fruict</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -18526,7 +18526,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>fruict</t>
+          <t>fréquence</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -18536,7 +18536,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>fréquence</t>
+          <t>fust</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -18546,7 +18546,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>fust</t>
+          <t>gaiges</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -18556,7 +18556,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>gaiges</t>
+          <t>gaing</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -18566,7 +18566,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>gaing</t>
+          <t>garde</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -18576,7 +18576,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>garde</t>
+          <t>gardé</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -18586,7 +18586,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>gardé</t>
+          <t>gaste</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -18596,7 +18596,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>gaste</t>
+          <t>gendarmerye</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -18606,7 +18606,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>gendarmerye</t>
+          <t>gentilzhommes</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -18616,7 +18616,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>gentilzhommes</t>
+          <t>germanie</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -18626,7 +18626,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>germanie</t>
+          <t>gouverneurs</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -18636,7 +18636,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>gouverneurs</t>
+          <t>gouverné</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -18646,7 +18646,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>gouverné</t>
+          <t>grande</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -18656,7 +18656,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>grande</t>
+          <t>grandement</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -18666,7 +18666,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>grandement</t>
+          <t>grandes</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -18676,7 +18676,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>grandes</t>
+          <t>grandz</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -18686,7 +18686,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>grandz</t>
+          <t>grantmont</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -18696,7 +18696,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>grantmont</t>
+          <t>grosse</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -18706,7 +18706,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>grosse</t>
+          <t>guarissent</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -18716,7 +18716,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>guarissent</t>
+          <t>guerre</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -18726,7 +18726,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>guerre</t>
+          <t>guillaume</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -18736,7 +18736,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>guillaume</t>
+          <t>guérissoit</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -18746,7 +18746,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>guérissoit</t>
+          <t>habitans</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -18756,7 +18756,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>habitans</t>
+          <t>harangifs</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -18766,7 +18766,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>harangifs</t>
+          <t>harangles</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -18776,7 +18776,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>harangles</t>
+          <t>harangufs</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -18786,7 +18786,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>harangufs</t>
+          <t>harlay</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -18796,7 +18796,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>harlay</t>
+          <t>haro</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -18806,7 +18806,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>haro</t>
+          <t>haussées</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -18816,7 +18816,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>haussées</t>
+          <t>herbes</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -18826,7 +18826,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>herbes</t>
+          <t>homme</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -18836,7 +18836,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>homme</t>
+          <t>hommes</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -18846,7 +18846,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>hommes</t>
+          <t>honneur</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -18856,7 +18856,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>honneur</t>
+          <t>honneurs</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -18866,7 +18866,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>honneurs</t>
+          <t>honte</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -18876,7 +18876,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>honte</t>
+          <t>hors</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -18886,7 +18886,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>hors</t>
+          <t>hostes</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -18896,7 +18896,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>hostes</t>
+          <t>héritier</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -18906,7 +18906,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>héritier</t>
+          <t>icelle</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -18916,7 +18916,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>icelle</t>
+          <t>icelles</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -18926,7 +18926,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>icelles</t>
+          <t>icelluy</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -18936,7 +18936,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>icelluy</t>
+          <t>ici</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -18946,7 +18946,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ici</t>
+          <t>il</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -18956,7 +18956,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>il</t>
+          <t>illicites</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -18966,7 +18966,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>illicites</t>
+          <t>ilz</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -18976,7 +18976,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ilz</t>
+          <t>importe</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -18986,7 +18986,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>importe</t>
+          <t>incongnués</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -18996,7 +18996,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>incongnués</t>
+          <t>injuriez</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -19006,7 +19006,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>injuriez</t>
+          <t>instruict</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -19016,7 +19016,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>instruict</t>
+          <t>insuffisans</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -19026,7 +19026,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>insuffisans</t>
+          <t>intra</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -19036,7 +19036,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>intra</t>
+          <t>italye</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -19046,7 +19046,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>italye</t>
+          <t>iv</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -19056,7 +19056,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>iv</t>
+          <t>jaloux</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -19066,7 +19066,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>jaloux</t>
+          <t>je</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -19076,7 +19076,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>je</t>
+          <t>jectz</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -19086,7 +19086,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>jectz</t>
+          <t>jeunes</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -19096,7 +19096,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>jeunes</t>
+          <t>joinct</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -19106,7 +19106,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>joinct</t>
+          <t>jour</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -19116,7 +19116,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>jour</t>
+          <t>jours</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -19126,7 +19126,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>jours</t>
+          <t>jouyr</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -19136,7 +19136,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>jouyr</t>
+          <t>judicandum</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -19146,7 +19146,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>judicandum</t>
+          <t>juge</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -19156,7 +19156,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>juge</t>
+          <t>jugemens</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -19166,7 +19166,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>jugemens</t>
+          <t>jugements</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -19176,7 +19176,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>jugements</t>
+          <t>juges</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -19186,7 +19186,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>juges</t>
+          <t>jugez</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -19196,7 +19196,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>jugez</t>
+          <t>jugés</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -19206,7 +19206,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>jugés</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -19216,7 +19216,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>jusque</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -19226,7 +19226,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>jusque</t>
+          <t>jusques</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -19236,7 +19236,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>jusques</t>
+          <t>ladicte</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -19246,7 +19246,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ladicte</t>
+          <t>lagez</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -19256,7 +19256,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>lagez</t>
+          <t>laisser</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -19266,7 +19266,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>laisser</t>
+          <t>laissé</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -19276,7 +19276,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>laissé</t>
+          <t>laquelle</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -19286,7 +19286,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>laquelle</t>
+          <t>le</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -19296,7 +19296,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>le</t>
+          <t>ledict</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -19306,7 +19306,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ledict</t>
+          <t>lequel</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -19316,7 +19316,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>lequel</t>
+          <t>les</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -19326,7 +19326,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>les</t>
+          <t>lesdictz</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -19336,7 +19336,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>lesdictz</t>
+          <t>lesquels</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -19346,7 +19346,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>lesquels</t>
+          <t>lettres</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -19356,7 +19356,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>lettres</t>
+          <t>leur</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -19366,7 +19366,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>leur</t>
+          <t>leurs</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -19376,7 +19376,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>leurs</t>
+          <t>leurz</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -19386,7 +19386,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>leurz</t>
+          <t>levoyent</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -19396,7 +19396,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>levoyent</t>
+          <t>liberté</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -19406,7 +19406,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>liberté</t>
+          <t>lier</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -19416,7 +19416,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>lier</t>
+          <t>ll</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -19426,7 +19426,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>ll</t>
+          <t>loing</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -19436,7 +19436,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>loing</t>
+          <t>loisible</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -19446,7 +19446,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>loisible</t>
+          <t>lors</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -19456,7 +19456,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>lors</t>
+          <t>louenge</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -19466,7 +19466,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>louenge</t>
+          <t>loy</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -19476,7 +19476,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>loy</t>
+          <t>lui</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -19486,7 +19486,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>lui</t>
+          <t>luy</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -19496,7 +19496,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>luy</t>
+          <t>là</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -19506,7 +19506,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>là</t>
+          <t>magistratz</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -19516,7 +19516,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>magistratz</t>
+          <t>mai</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -19526,7 +19526,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>mai</t>
+          <t>maintenant</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -19536,7 +19536,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>maintenant</t>
+          <t>mais</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -19546,7 +19546,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>mais</t>
+          <t>maison</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -19556,7 +19556,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>maison</t>
+          <t>maistres</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -19566,7 +19566,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>maistres</t>
+          <t>mal</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -19576,7 +19576,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>mal</t>
+          <t>malcontentemens</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -19586,7 +19586,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>malcontentemens</t>
+          <t>malladies</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -19596,7 +19596,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>malladies</t>
+          <t>mandant</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -19606,7 +19606,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>mandant</t>
+          <t>mander</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -19616,7 +19616,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>mander</t>
+          <t>mandé</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -19626,7 +19626,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>mandé</t>
+          <t>mangent</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -19636,7 +19636,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>mangent</t>
+          <t>maniére</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -19646,7 +19646,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>maniére</t>
+          <t>maramnglies</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -19656,7 +19656,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>maramnglies</t>
+          <t>mareschaulx</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -19666,7 +19666,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>mareschaulx</t>
+          <t>mau</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -19676,7 +19676,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>mau</t>
+          <t>mauvais</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -19686,7 +19686,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>mauvais</t>
+          <t>mauvaise</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -19696,7 +19696,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>mauvaise</t>
+          <t>mayeurs</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -19706,7 +19706,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>mayeurs</t>
+          <t>mecte</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -19716,7 +19716,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>mecte</t>
+          <t>mectent</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -19726,7 +19726,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>mectent</t>
+          <t>mectre</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -19736,7 +19736,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>mectre</t>
+          <t>membres</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -19746,7 +19746,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>membres</t>
+          <t>mence</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -19756,7 +19756,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>mence</t>
+          <t>mener</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -19766,7 +19766,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>mener</t>
+          <t>ment</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -19776,7 +19776,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ment</t>
+          <t>menuz</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -19786,7 +19786,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>menuz</t>
+          <t>meslez</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -19796,7 +19796,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>meslez</t>
+          <t>meslée</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -19806,7 +19806,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>meslée</t>
+          <t>mesme</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -19816,7 +19816,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>mesme</t>
+          <t>mesmement</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -19826,7 +19826,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>mesmement</t>
+          <t>mesmes</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -19836,7 +19836,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>mesmes</t>
+          <t>messire</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -19846,7 +19846,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>messire</t>
+          <t>mestier</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -19856,7 +19856,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>mestier</t>
+          <t>mestre</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -19866,7 +19866,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>mestre</t>
+          <t>meure</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -19876,7 +19876,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>meure</t>
+          <t>meurs</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -19886,7 +19886,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>meurs</t>
+          <t>mez</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -19896,7 +19896,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>mez</t>
+          <t>michel</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -19906,7 +19906,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>michel</t>
+          <t>mieulx</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -19916,7 +19916,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>mieulx</t>
+          <t>mille</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -19926,7 +19926,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>mille</t>
+          <t>mis</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -19936,7 +19936,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>mis</t>
+          <t>missaires</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -19946,7 +19946,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>missaires</t>
+          <t>mm</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -19956,7 +19956,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>mm</t>
+          <t>moindre</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -19966,7 +19966,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>moindre</t>
+          <t>moings</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -19976,7 +19976,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>moings</t>
+          <t>moins</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -19986,7 +19986,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>moins</t>
+          <t>monstrer</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -19996,7 +19996,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>monstrer</t>
+          <t>monter</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -20006,7 +20006,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>monter</t>
+          <t>moriginée</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -20016,7 +20016,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>moriginée</t>
+          <t>motz</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -20026,7 +20026,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>motz</t>
+          <t>moyen</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -20036,7 +20036,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>moyen</t>
+          <t>mue</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -20046,7 +20046,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>mue</t>
+          <t>multiplié</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -20056,7 +20056,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>multiplié</t>
+          <t>murailles</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -20066,7 +20066,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>murailles</t>
+          <t>mutinement</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -20076,7 +20076,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>mutinement</t>
+          <t>médecins</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -20086,7 +20086,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>médecins</t>
+          <t>ménassent</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -20096,7 +20096,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ménassent</t>
+          <t>mérite</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -20106,7 +20106,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>mérite</t>
+          <t>nent</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -20116,7 +20116,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>nent</t>
+          <t>nicolas</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -20126,7 +20126,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>nicolas</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -20136,7 +20136,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>normandye</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -20146,7 +20146,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>normandye</t>
+          <t>nuscrits</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -20156,7 +20156,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>nuscrits</t>
+          <t>nué</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -20166,7 +20166,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>nué</t>
+          <t>néces</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -20176,7 +20176,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>néces</t>
+          <t>nécessaire</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -20186,7 +20186,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>nécessaire</t>
+          <t>nécessitez</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -20196,7 +20196,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>nécessitez</t>
+          <t>nécessité</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -20206,7 +20206,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>nécessité</t>
+          <t>obstination</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -20216,7 +20216,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>obstination</t>
+          <t>obstiné</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -20226,7 +20226,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>obstiné</t>
+          <t>obvier</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -20236,7 +20236,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>obvier</t>
+          <t>obéissans</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -20246,7 +20246,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>obéissans</t>
+          <t>obéissante</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -20256,7 +20256,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>obéissante</t>
+          <t>obéys</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -20266,7 +20266,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>obéys</t>
+          <t>offerte</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -20276,7 +20276,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>offerte</t>
+          <t>officiaulx</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -20286,7 +20286,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>officiaulx</t>
+          <t>officier</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -20296,7 +20296,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>officier</t>
+          <t>officiers</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -20306,7 +20306,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>officiers</t>
+          <t>officierz</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -20316,7 +20316,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>officierz</t>
+          <t>offre</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -20326,7 +20326,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>offre</t>
+          <t>offrent</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -20336,7 +20336,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>offrent</t>
+          <t>oir</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -20346,7 +20346,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>oir</t>
+          <t>olivier</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -20356,7 +20356,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>olivier</t>
+          <t>omis</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -20366,7 +20366,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>omis</t>
+          <t>omnia</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -20376,7 +20376,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>omnia</t>
+          <t>ont</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -20386,7 +20386,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>ont</t>
+          <t>oppinion</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -20396,7 +20396,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>oppinion</t>
+          <t>opprimer</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -20406,7 +20406,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>opprimer</t>
+          <t>oraisons</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -20416,7 +20416,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>oraisons</t>
+          <t>ordinaire</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -20426,7 +20426,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>ordinaire</t>
+          <t>ordinaires</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -20436,7 +20436,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>ordinaires</t>
+          <t>ordonné</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -20446,7 +20446,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>ordonné</t>
+          <t>ordre</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -20456,7 +20456,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>ordre</t>
+          <t>orront</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -20466,7 +20466,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>orront</t>
+          <t>osté</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -20476,7 +20476,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>osté</t>
+          <t>ou</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -20486,7 +20486,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>ouir</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -20496,7 +20496,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>ouir</t>
+          <t>oultre</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -20506,7 +20506,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>oultre</t>
+          <t>ouvrages</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -20516,7 +20516,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>ouvrages</t>
+          <t>où</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -20526,7 +20526,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>où</t>
+          <t>oü</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -20536,7 +20536,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>oü</t>
+          <t>paisibles</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -20546,7 +20546,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>paisibles</t>
+          <t>paix</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -20556,7 +20556,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>paix</t>
+          <t>pape</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -20566,7 +20566,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>paiz</t>
+          <t>parce</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -20576,7 +20576,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>pape</t>
+          <t>pareil</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -20586,7 +20586,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>parce</t>
+          <t>parietes</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -20596,7 +20596,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>pareil</t>
+          <t>paris</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -20606,7 +20606,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>parietes</t>
+          <t>parle</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -20616,7 +20616,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>parlemens</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -20626,7 +20626,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>parle</t>
+          <t>parlement</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -20636,7 +20636,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>parlemens</t>
+          <t>parlements</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -20646,7 +20646,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>parlement</t>
+          <t>parlent</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -20656,7 +20656,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>parlements</t>
+          <t>parmy</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -20666,7 +20666,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>parlent</t>
+          <t>parolles</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -20676,7 +20676,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>parmy</t>
+          <t>particu</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -20686,7 +20686,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>parolles</t>
+          <t>particularités</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -20696,7 +20696,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>particu</t>
+          <t>partie</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -20706,7 +20706,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>particularités</t>
+          <t>partiz</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -20716,7 +20716,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>partie</t>
+          <t>partout</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -20726,7 +20726,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>partiz</t>
+          <t>partys</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -20736,7 +20736,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>partout</t>
+          <t>parvenir</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -20746,7 +20746,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>partys</t>
+          <t>passera</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -20756,7 +20756,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>parvenir</t>
+          <t>payement</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -20766,7 +20766,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>passera</t>
+          <t>payez</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -20776,7 +20776,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>payement</t>
+          <t>payé</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -20786,7 +20786,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>payez</t>
+          <t>payés</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -20796,7 +20796,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>payé</t>
+          <t>pendu</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -20806,7 +20806,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>payés</t>
+          <t>pense</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -20816,7 +20816,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>pendu</t>
+          <t>perdre</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -20826,7 +20826,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>pense</t>
+          <t>perits</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -20836,7 +20836,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>perdre</t>
+          <t>personnes</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -20846,7 +20846,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>perits</t>
+          <t>persuadast</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -20856,7 +20856,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>personnes</t>
+          <t>persuadée</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -20866,7 +20866,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>persuadast</t>
+          <t>peu</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -20876,7 +20876,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>persuadée</t>
+          <t>peult</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -20886,7 +20886,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>peu</t>
+          <t>peuple</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -20896,7 +20896,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>peult</t>
+          <t>peur</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -20906,7 +20906,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>peuple</t>
+          <t>peuvent</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -20916,7 +20916,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>peur</t>
+          <t>pices</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -20926,7 +20926,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>peuvent</t>
+          <t>piller</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -20936,7 +20936,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>pices</t>
+          <t>pitié</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -20946,7 +20946,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>piller</t>
+          <t>plaidant</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -20956,7 +20956,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>pitié</t>
+          <t>plaider</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -20966,7 +20966,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>plaidant</t>
+          <t>plaintes</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -20976,7 +20976,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>plaider</t>
+          <t>plaisir</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -20986,7 +20986,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>plaintes</t>
+          <t>plaist</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -20996,7 +20996,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>plaisir</t>
+          <t>plu</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -21006,7 +21006,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>plaist</t>
+          <t>plusieurs</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -21016,7 +21016,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>plu</t>
+          <t>pluspart</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -21026,7 +21026,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>plusieurs</t>
+          <t>plustost</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -21036,7 +21036,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>pluspart</t>
+          <t>portans</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -21046,7 +21046,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>plustost</t>
+          <t>porte</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -21056,7 +21056,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>portans</t>
+          <t>portoit</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -21066,7 +21066,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>porte</t>
+          <t>porté</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -21076,7 +21076,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>portoit</t>
+          <t>poste</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -21086,7 +21086,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>porté</t>
+          <t>pourroit</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -21096,7 +21096,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>poste</t>
+          <t>pourront</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -21106,7 +21106,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>pourroit</t>
+          <t>pourveu</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -21116,7 +21116,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>pourront</t>
+          <t>pouvoir</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -21126,7 +21126,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>pourveu</t>
+          <t>pouvoit</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -21136,7 +21136,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>pouvoir</t>
+          <t>pren</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -21146,7 +21146,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>pouvoit</t>
+          <t>prendre</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -21156,7 +21156,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>pren</t>
+          <t>prennent</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -21166,7 +21166,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>prendre</t>
+          <t>prestz</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -21176,7 +21176,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>prennent</t>
+          <t>presvotz</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -21186,7 +21186,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>prestz</t>
+          <t>priait</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -21196,7 +21196,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>presvotz</t>
+          <t>prie</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -21206,7 +21206,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>priait</t>
+          <t>principale</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -21216,7 +21216,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>prie</t>
+          <t>prisonnierz</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -21226,7 +21226,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>principale</t>
+          <t>privement</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -21236,7 +21236,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>prisonnierz</t>
+          <t>priver</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -21246,7 +21246,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>privement</t>
+          <t>privé</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -21256,7 +21256,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>priver</t>
+          <t>priz</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -21266,7 +21266,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>privé</t>
+          <t>procez</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -21276,7 +21276,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>priz</t>
+          <t>procureurs</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -21286,7 +21286,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>procez</t>
+          <t>procès</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -21296,7 +21296,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>procureurs</t>
+          <t>procéde</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -21306,7 +21306,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>procès</t>
+          <t>procéder</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -21316,7 +21316,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>procéde</t>
+          <t>procés</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -21326,7 +21326,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>procéder</t>
+          <t>profictent</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -21336,7 +21336,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>procés</t>
+          <t>proficté</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -21346,7 +21346,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>profictent</t>
+          <t>promptement</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -21356,7 +21356,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>proficté</t>
+          <t>prononca</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -21366,7 +21366,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>promptement</t>
+          <t>prononce</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -21376,7 +21376,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>prononca</t>
+          <t>prouf</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -21386,7 +21386,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>prononce</t>
+          <t>prédécesseur</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -21396,7 +21396,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>prouf</t>
+          <t>prélatz</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -21406,7 +21406,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>prédécesseur</t>
+          <t>préluyre</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -21416,7 +21416,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>prélatz</t>
+          <t>prés</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -21426,7 +21426,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>préluyre</t>
+          <t>présent</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -21436,7 +21436,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>prés</t>
+          <t>présente</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -21446,7 +21446,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>présent</t>
+          <t>présentée</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -21456,7 +21456,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>présente</t>
+          <t>président</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -21466,7 +21466,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>présentée</t>
+          <t>présidents</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -21476,7 +21476,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>président</t>
+          <t>présidiaulx</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -21486,7 +21486,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>présidents</t>
+          <t>publicque</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -21496,7 +21496,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>présidiaulx</t>
+          <t>publié</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -21506,7 +21506,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>publicque</t>
+          <t>puisqu</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -21516,7 +21516,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>publié</t>
+          <t>pulluloient</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -21526,7 +21526,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>puisqu</t>
+          <t>purgé</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -21536,7 +21536,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>pulluloient</t>
+          <t>putains</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -21546,7 +21546,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>purgé</t>
+          <t>pére</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -21556,7 +21556,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>putains</t>
+          <t>périssent</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -21566,7 +21566,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>pére</t>
+          <t>qu</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -21576,7 +21576,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>périssent</t>
+          <t>quand</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -21586,7 +21586,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>qu</t>
+          <t>quarante</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -21596,7 +21596,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>quand</t>
+          <t>quartenierz</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -21606,7 +21606,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>quarante</t>
+          <t>quartier</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -21616,7 +21616,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>quartenierz</t>
+          <t>que</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -21626,7 +21626,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>quartier</t>
+          <t>quelque</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -21636,7 +21636,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>quelquefois</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -21646,7 +21646,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>quelque</t>
+          <t>quelques</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -21656,7 +21656,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>quelquefois</t>
+          <t>quelz</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -21666,7 +21666,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>quelques</t>
+          <t>querunt</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -21676,7 +21676,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>quelz</t>
+          <t>ques</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -21686,7 +21686,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>querunt</t>
+          <t>qui</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -21696,7 +21696,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>ques</t>
+          <t>quitte</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -21706,7 +21706,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>qui</t>
+          <t>quoy</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -21716,7 +21716,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>quitte</t>
+          <t>ra</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -21726,7 +21726,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>quoy</t>
+          <t>raison</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -21736,7 +21736,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>ra</t>
+          <t>rapporté</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -21746,7 +21746,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>raison</t>
+          <t>rapportées</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -21756,7 +21756,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>rapporté</t>
+          <t>receue</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -21766,7 +21766,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>rapportées</t>
+          <t>recouru</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -21776,7 +21776,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>receue</t>
+          <t>recueilli</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -21786,7 +21786,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>recouru</t>
+          <t>reculé</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -21796,7 +21796,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>recueilli</t>
+          <t>regarde</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -21806,7 +21806,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>reculé</t>
+          <t>regarder</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -21816,7 +21816,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>regarde</t>
+          <t>regardera</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -21826,7 +21826,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>regarder</t>
+          <t>remedes</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -21836,7 +21836,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>regardera</t>
+          <t>remonstrer</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -21846,7 +21846,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>remedes</t>
+          <t>remède</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -21856,7 +21856,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>remonstrer</t>
+          <t>reméde</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -21866,7 +21866,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>remède</t>
+          <t>remédes</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -21876,7 +21876,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>reméde</t>
+          <t>remédier</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -21886,7 +21886,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>remédes</t>
+          <t>rendre</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -21896,7 +21896,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>remédier</t>
+          <t>requeste</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -21906,7 +21906,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>rendre</t>
+          <t>requestes</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -21916,7 +21916,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>requeste</t>
+          <t>res</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -21926,7 +21926,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>requestes</t>
+          <t>ressemblé</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -21936,7 +21936,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>res</t>
+          <t>ressort</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -21946,7 +21946,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>ressemblé</t>
+          <t>reteneus</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -21956,7 +21956,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>ressort</t>
+          <t>retrenchement</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -21966,7 +21966,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>reteneus</t>
+          <t>reur</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -21976,7 +21976,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>retrenchement</t>
+          <t>reveneu</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -21986,7 +21986,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>reur</t>
+          <t>revenu</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -21996,7 +21996,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>reveneu</t>
+          <t>richesses</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -22006,7 +22006,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>revenu</t>
+          <t>rien</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -22016,7 +22016,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>richesses</t>
+          <t>rigoureux</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -22026,7 +22026,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>rien</t>
+          <t>roit</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -22036,7 +22036,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>rigoureux</t>
+          <t>rongné</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -22046,7 +22046,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>roit</t>
+          <t>ront</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -22056,7 +22056,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>rongné</t>
+          <t>roy</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -22066,7 +22066,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>ront</t>
+          <t>royaume</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -22076,7 +22076,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>roy</t>
+          <t>roys</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -22086,7 +22086,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>royaume</t>
+          <t>rubay</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -22096,7 +22096,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>roys</t>
+          <t>ré</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -22106,7 +22106,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>rubay</t>
+          <t>régler</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -22116,7 +22116,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>ré</t>
+          <t>réglées</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -22126,7 +22126,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>régler</t>
+          <t>réponse</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -22136,7 +22136,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>réglées</t>
+          <t>réputa</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -22146,7 +22146,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>réponse</t>
+          <t>réputation</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -22156,7 +22156,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>réputa</t>
+          <t>résidence</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -22166,7 +22166,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>réputation</t>
+          <t>sa</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -22176,7 +22176,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>résidence</t>
+          <t>saiges</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -22186,7 +22186,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>saigesse</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -22196,7 +22196,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>saiges</t>
+          <t>sajet</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -22206,7 +22206,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>saigesse</t>
+          <t>salle</t>
         </is>
       </c>
       <c r="B733" t="n">
@@ -22216,7 +22216,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>sajet</t>
+          <t>sarcler</t>
         </is>
       </c>
       <c r="B734" t="n">
@@ -22226,7 +22226,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>salle</t>
+          <t>sare</t>
         </is>
       </c>
       <c r="B735" t="n">
@@ -22236,7 +22236,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>sarcler</t>
+          <t>satisfaire</t>
         </is>
       </c>
       <c r="B736" t="n">
@@ -22246,7 +22246,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>sare</t>
+          <t>scait</t>
         </is>
       </c>
       <c r="B737" t="n">
@@ -22256,7 +22256,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>satisfaire</t>
+          <t>scauroit</t>
         </is>
       </c>
       <c r="B738" t="n">
@@ -22266,7 +22266,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>scait</t>
+          <t>scavent</t>
         </is>
       </c>
       <c r="B739" t="n">
@@ -22276,7 +22276,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>scauroit</t>
+          <t>scavoir</t>
         </is>
       </c>
       <c r="B740" t="n">
@@ -22286,7 +22286,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>scavent</t>
+          <t>se</t>
         </is>
       </c>
       <c r="B741" t="n">
@@ -22296,7 +22296,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>scavoir</t>
+          <t>seconde</t>
         </is>
       </c>
       <c r="B742" t="n">
@@ -22306,7 +22306,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>se</t>
+          <t>seiller</t>
         </is>
       </c>
       <c r="B743" t="n">
@@ -22316,7 +22316,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>seconde</t>
+          <t>semblables</t>
         </is>
       </c>
       <c r="B744" t="n">
@@ -22326,7 +22326,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>seiller</t>
+          <t>semble</t>
         </is>
       </c>
       <c r="B745" t="n">
@@ -22336,7 +22336,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>semblables</t>
+          <t>semblent</t>
         </is>
       </c>
       <c r="B746" t="n">
@@ -22346,7 +22346,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>semble</t>
+          <t>sembler</t>
         </is>
       </c>
       <c r="B747" t="n">
@@ -22356,7 +22356,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>semblent</t>
+          <t>sentent</t>
         </is>
       </c>
       <c r="B748" t="n">
@@ -22366,7 +22366,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>sembler</t>
+          <t>sepmaine</t>
         </is>
       </c>
       <c r="B749" t="n">
@@ -22376,7 +22376,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>sentent</t>
+          <t>seroit</t>
         </is>
       </c>
       <c r="B750" t="n">
@@ -22386,7 +22386,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>sepmaine</t>
+          <t>seront</t>
         </is>
       </c>
       <c r="B751" t="n">
@@ -22396,7 +22396,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>seroit</t>
+          <t>ses</t>
         </is>
       </c>
       <c r="B752" t="n">
@@ -22406,7 +22406,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>seront</t>
+          <t>seullement</t>
         </is>
       </c>
       <c r="B753" t="n">
@@ -22416,7 +22416,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>ses</t>
+          <t>sidence</t>
         </is>
       </c>
       <c r="B754" t="n">
@@ -22426,7 +22426,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>seullement</t>
+          <t>sider</t>
         </is>
       </c>
       <c r="B755" t="n">
@@ -22436,7 +22436,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>sidence</t>
+          <t>sieur</t>
         </is>
       </c>
       <c r="B756" t="n">
@@ -22446,7 +22446,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>sider</t>
+          <t>sieurs</t>
         </is>
       </c>
       <c r="B757" t="n">
@@ -22456,7 +22456,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>sieur</t>
+          <t>simplicité</t>
         </is>
       </c>
       <c r="B758" t="n">
@@ -22466,7 +22466,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>sieurs</t>
+          <t>sinon</t>
         </is>
       </c>
       <c r="B759" t="n">
@@ -22476,7 +22476,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>simplicité</t>
+          <t>sitost</t>
         </is>
       </c>
       <c r="B760" t="n">
@@ -22486,7 +22486,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>sinon</t>
+          <t>siége</t>
         </is>
       </c>
       <c r="B761" t="n">
@@ -22496,7 +22496,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>sitost</t>
+          <t>soit</t>
         </is>
       </c>
       <c r="B762" t="n">
@@ -22506,7 +22506,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>siége</t>
+          <t>soldat</t>
         </is>
       </c>
       <c r="B763" t="n">
@@ -22516,7 +22516,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>soit</t>
+          <t>soldatz</t>
         </is>
       </c>
       <c r="B764" t="n">
@@ -22526,7 +22526,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>soldat</t>
+          <t>soleil</t>
         </is>
       </c>
       <c r="B765" t="n">
@@ -22536,7 +22536,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>soldatz</t>
+          <t>solliciteurs</t>
         </is>
       </c>
       <c r="B766" t="n">
@@ -22546,7 +22546,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>soleil</t>
+          <t>sommairement</t>
         </is>
       </c>
       <c r="B767" t="n">
@@ -22556,7 +22556,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>solliciteurs</t>
+          <t>sonnes</t>
         </is>
       </c>
       <c r="B768" t="n">
@@ -22566,7 +22566,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>sommairement</t>
+          <t>sont</t>
         </is>
       </c>
       <c r="B769" t="n">
@@ -22576,7 +22576,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>sonnes</t>
+          <t>soucient</t>
         </is>
       </c>
       <c r="B770" t="n">
@@ -22586,7 +22586,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>sont</t>
+          <t>souloit</t>
         </is>
       </c>
       <c r="B771" t="n">
@@ -22596,7 +22596,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>soucient</t>
+          <t>souvent</t>
         </is>
       </c>
       <c r="B772" t="n">
@@ -22606,7 +22606,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>souloit</t>
+          <t>soyent</t>
         </is>
       </c>
       <c r="B773" t="n">
@@ -22616,7 +22616,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>souvent</t>
+          <t>subalternes</t>
         </is>
       </c>
       <c r="B774" t="n">
@@ -22626,7 +22626,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>soyent</t>
+          <t>subjectz</t>
         </is>
       </c>
       <c r="B775" t="n">
@@ -22636,7 +22636,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>subalternes</t>
+          <t>suis</t>
         </is>
       </c>
       <c r="B776" t="n">
@@ -22646,7 +22646,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>subjectz</t>
+          <t>suivre</t>
         </is>
       </c>
       <c r="B777" t="n">
@@ -22656,7 +22656,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>suis</t>
+          <t>suivy</t>
         </is>
       </c>
       <c r="B778" t="n">
@@ -22666,7 +22666,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>suivre</t>
+          <t>sur</t>
         </is>
       </c>
       <c r="B779" t="n">
@@ -22676,7 +22676,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>suivy</t>
+          <t>surpassent</t>
         </is>
       </c>
       <c r="B780" t="n">
@@ -22686,7 +22686,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>sur</t>
+          <t>suspendre</t>
         </is>
       </c>
       <c r="B781" t="n">
@@ -22696,7 +22696,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>surpassent</t>
+          <t>suyvissent</t>
         </is>
       </c>
       <c r="B782" t="n">
@@ -22706,7 +22706,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>suspendre</t>
+          <t>sçeu</t>
         </is>
       </c>
       <c r="B783" t="n">
@@ -22716,7 +22716,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>suyvissent</t>
+          <t>séant</t>
         </is>
       </c>
       <c r="B784" t="n">
@@ -22726,7 +22726,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>sçeu</t>
+          <t>séculier</t>
         </is>
       </c>
       <c r="B785" t="n">
@@ -22736,7 +22736,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>séant</t>
+          <t>séditieux</t>
         </is>
       </c>
       <c r="B786" t="n">
@@ -22746,7 +22746,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>séculier</t>
+          <t>sédition</t>
         </is>
       </c>
       <c r="B787" t="n">
@@ -22756,7 +22756,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>séditieux</t>
+          <t>séditions</t>
         </is>
       </c>
       <c r="B788" t="n">
@@ -22766,7 +22766,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>sédition</t>
+          <t>séneschaulx</t>
         </is>
       </c>
       <c r="B789" t="n">
@@ -22776,7 +22776,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>séditions</t>
+          <t>tailles</t>
         </is>
       </c>
       <c r="B790" t="n">
@@ -22786,7 +22786,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>séneschaulx</t>
+          <t>taine</t>
         </is>
       </c>
       <c r="B791" t="n">
@@ -22796,7 +22796,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>tailles</t>
+          <t>tant</t>
         </is>
       </c>
       <c r="B792" t="n">
@@ -22806,7 +22806,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>taine</t>
+          <t>taxés</t>
         </is>
       </c>
       <c r="B793" t="n">
@@ -22816,7 +22816,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>tant</t>
+          <t>tel</t>
         </is>
       </c>
       <c r="B794" t="n">
@@ -22826,7 +22826,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>taxés</t>
+          <t>telle</t>
         </is>
       </c>
       <c r="B795" t="n">
@@ -22836,7 +22836,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>tel</t>
+          <t>tellement</t>
         </is>
       </c>
       <c r="B796" t="n">
@@ -22846,7 +22846,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>telle</t>
+          <t>telles</t>
         </is>
       </c>
       <c r="B797" t="n">
@@ -22856,7 +22856,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>tellement</t>
+          <t>temporelle</t>
         </is>
       </c>
       <c r="B798" t="n">
@@ -22866,7 +22866,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>telles</t>
+          <t>tenir</t>
         </is>
       </c>
       <c r="B799" t="n">
@@ -22876,7 +22876,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>temporelle</t>
+          <t>thoulouse</t>
         </is>
       </c>
       <c r="B800" t="n">
@@ -22886,7 +22886,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>tenir</t>
+          <t>théâtre</t>
         </is>
       </c>
       <c r="B801" t="n">
@@ -22896,7 +22896,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>thoulouse</t>
+          <t>ticulières</t>
         </is>
       </c>
       <c r="B802" t="n">
@@ -22906,7 +22906,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>théâtre</t>
+          <t>tient</t>
         </is>
       </c>
       <c r="B803" t="n">
@@ -22916,7 +22916,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>ticulières</t>
+          <t>timere</t>
         </is>
       </c>
       <c r="B804" t="n">
@@ -22926,7 +22926,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>tient</t>
+          <t>tion</t>
         </is>
       </c>
       <c r="B805" t="n">
@@ -22936,7 +22936,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>timere</t>
+          <t>tirer</t>
         </is>
       </c>
       <c r="B806" t="n">
@@ -22946,7 +22946,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>tion</t>
+          <t>tisfaüctz</t>
         </is>
       </c>
       <c r="B807" t="n">
@@ -22956,7 +22956,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>tirer</t>
+          <t>touchant</t>
         </is>
       </c>
       <c r="B808" t="n">
@@ -22966,7 +22966,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>tisfaüctz</t>
+          <t>touche</t>
         </is>
       </c>
       <c r="B809" t="n">
@@ -22976,7 +22976,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>touchant</t>
+          <t>touchez</t>
         </is>
       </c>
       <c r="B810" t="n">
@@ -22986,7 +22986,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>touche</t>
+          <t>touchoit</t>
         </is>
       </c>
       <c r="B811" t="n">
@@ -22996,7 +22996,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>touchez</t>
+          <t>toujours</t>
         </is>
       </c>
       <c r="B812" t="n">
@@ -23006,7 +23006,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>touchoit</t>
+          <t>tous</t>
         </is>
       </c>
       <c r="B813" t="n">
@@ -23016,7 +23016,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>toujours</t>
+          <t>tousjours</t>
         </is>
       </c>
       <c r="B814" t="n">
@@ -23026,7 +23026,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>tous</t>
+          <t>toute</t>
         </is>
       </c>
       <c r="B815" t="n">
@@ -23036,7 +23036,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>tousjours</t>
+          <t>toutes</t>
         </is>
       </c>
       <c r="B816" t="n">
@@ -23046,7 +23046,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>toute</t>
+          <t>toutesfois</t>
         </is>
       </c>
       <c r="B817" t="n">
@@ -23056,7 +23056,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>toutes</t>
+          <t>trois</t>
         </is>
       </c>
       <c r="B818" t="n">
@@ -23066,7 +23066,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>toutesfois</t>
+          <t>troisiesme</t>
         </is>
       </c>
       <c r="B819" t="n">
@@ -23076,7 +23076,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>trois</t>
+          <t>trop</t>
         </is>
       </c>
       <c r="B820" t="n">
@@ -23086,7 +23086,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>troisiesme</t>
+          <t>trouvaient</t>
         </is>
       </c>
       <c r="B821" t="n">
@@ -23096,7 +23096,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>trop</t>
+          <t>trouvent</t>
         </is>
       </c>
       <c r="B822" t="n">
@@ -23106,7 +23106,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>trouvaient</t>
+          <t>trouver</t>
         </is>
       </c>
       <c r="B823" t="n">
@@ -23116,7 +23116,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>trouvent</t>
+          <t>trouvé</t>
         </is>
       </c>
       <c r="B824" t="n">
@@ -23126,7 +23126,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>trouver</t>
+          <t>trés</t>
         </is>
       </c>
       <c r="B825" t="n">
@@ -23136,7 +23136,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>trouvé</t>
+          <t>ture</t>
         </is>
       </c>
       <c r="B826" t="n">
@@ -23146,7 +23146,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>trés</t>
+          <t>tuta</t>
         </is>
       </c>
       <c r="B827" t="n">
@@ -23156,7 +23156,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>ture</t>
+          <t>térestz</t>
         </is>
       </c>
       <c r="B828" t="n">
@@ -23166,7 +23166,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>tuta</t>
+          <t>un</t>
         </is>
       </c>
       <c r="B829" t="n">
@@ -23176,7 +23176,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>térestz</t>
+          <t>une</t>
         </is>
       </c>
       <c r="B830" t="n">
@@ -23186,7 +23186,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>ung</t>
         </is>
       </c>
       <c r="B831" t="n">
@@ -23196,7 +23196,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>une</t>
+          <t>universel</t>
         </is>
       </c>
       <c r="B832" t="n">
@@ -23206,7 +23206,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>ung</t>
+          <t>uns</t>
         </is>
       </c>
       <c r="B833" t="n">
@@ -23216,7 +23216,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>universel</t>
+          <t>usé</t>
         </is>
       </c>
       <c r="B834" t="n">
@@ -23226,7 +23226,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>uns</t>
+          <t>utilité</t>
         </is>
       </c>
       <c r="B835" t="n">
@@ -23236,7 +23236,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>usé</t>
+          <t>vaises</t>
         </is>
       </c>
       <c r="B836" t="n">
@@ -23246,7 +23246,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>utilité</t>
+          <t>veneu</t>
         </is>
       </c>
       <c r="B837" t="n">
@@ -23256,7 +23256,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>vaises</t>
+          <t>venir</t>
         </is>
       </c>
       <c r="B838" t="n">
@@ -23266,7 +23266,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>veneu</t>
+          <t>venu</t>
         </is>
       </c>
       <c r="B839" t="n">
@@ -23276,7 +23276,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>venir</t>
+          <t>veoir</t>
         </is>
       </c>
       <c r="B840" t="n">
@@ -23286,7 +23286,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>venu</t>
+          <t>veoyant</t>
         </is>
       </c>
       <c r="B841" t="n">
@@ -23296,7 +23296,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>veoir</t>
+          <t>veoyent</t>
         </is>
       </c>
       <c r="B842" t="n">
@@ -23306,7 +23306,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>veoyant</t>
+          <t>veoyt</t>
         </is>
       </c>
       <c r="B843" t="n">
@@ -23316,7 +23316,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>veoyent</t>
+          <t>vergongne</t>
         </is>
       </c>
       <c r="B844" t="n">
@@ -23326,7 +23326,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>veoyt</t>
+          <t>vescu</t>
         </is>
       </c>
       <c r="B845" t="n">
@@ -23336,7 +23336,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>vergongne</t>
+          <t>veu</t>
         </is>
       </c>
       <c r="B846" t="n">
@@ -23346,7 +23346,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>vescu</t>
+          <t>veult</t>
         </is>
       </c>
       <c r="B847" t="n">
@@ -23356,7 +23356,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>veu</t>
+          <t>vicaires</t>
         </is>
       </c>
       <c r="B848" t="n">
@@ -23366,7 +23366,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>veult</t>
+          <t>vien</t>
         </is>
       </c>
       <c r="B849" t="n">
@@ -23376,7 +23376,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>vicaires</t>
+          <t>vienne</t>
         </is>
       </c>
       <c r="B850" t="n">
@@ -23386,7 +23386,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>vien</t>
+          <t>viennent</t>
         </is>
       </c>
       <c r="B851" t="n">
@@ -23396,7 +23396,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>vienne</t>
+          <t>vilaine</t>
         </is>
       </c>
       <c r="B852" t="n">
@@ -23406,7 +23406,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>viennent</t>
+          <t>ville</t>
         </is>
       </c>
       <c r="B853" t="n">
@@ -23416,7 +23416,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>vilaine</t>
+          <t>villes</t>
         </is>
       </c>
       <c r="B854" t="n">
@@ -23426,7 +23426,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>ville</t>
+          <t>viollences</t>
         </is>
       </c>
       <c r="B855" t="n">
@@ -23436,7 +23436,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>villes</t>
+          <t>visiter</t>
         </is>
       </c>
       <c r="B856" t="n">
@@ -23446,7 +23446,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>viollences</t>
+          <t>vivre</t>
         </is>
       </c>
       <c r="B857" t="n">
@@ -23456,7 +23456,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>visiter</t>
+          <t>voi</t>
         </is>
       </c>
       <c r="B858" t="n">
@@ -23466,7 +23466,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>vivre</t>
+          <t>vont</t>
         </is>
       </c>
       <c r="B859" t="n">
@@ -23476,7 +23476,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>voi</t>
+          <t>vouldroient</t>
         </is>
       </c>
       <c r="B860" t="n">
@@ -23486,7 +23486,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>vont</t>
+          <t>vouldroit</t>
         </is>
       </c>
       <c r="B861" t="n">
@@ -23496,7 +23496,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>vouldroient</t>
+          <t>vouloir</t>
         </is>
       </c>
       <c r="B862" t="n">
@@ -23506,7 +23506,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>vouldroit</t>
+          <t>vouluntierz</t>
         </is>
       </c>
       <c r="B863" t="n">
@@ -23516,7 +23516,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>vouloir</t>
+          <t>voyant</t>
         </is>
       </c>
       <c r="B864" t="n">
@@ -23526,7 +23526,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>vouluntierz</t>
+          <t>voye</t>
         </is>
       </c>
       <c r="B865" t="n">
@@ -23536,7 +23536,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>voyant</t>
+          <t>voyez</t>
         </is>
       </c>
       <c r="B866" t="n">
@@ -23546,7 +23546,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>voye</t>
+          <t>voyt</t>
         </is>
       </c>
       <c r="B867" t="n">
@@ -23556,7 +23556,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>voyez</t>
+          <t>vray</t>
         </is>
       </c>
       <c r="B868" t="n">
@@ -23566,7 +23566,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>voyt</t>
+          <t>vuider</t>
         </is>
       </c>
       <c r="B869" t="n">
@@ -23576,7 +23576,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>vray</t>
+          <t>vécu</t>
         </is>
       </c>
       <c r="B870" t="n">
@@ -23586,7 +23586,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>vuider</t>
+          <t>vérité</t>
         </is>
       </c>
       <c r="B871" t="n">
@@ -23596,7 +23596,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>vécu</t>
+          <t>yssue</t>
         </is>
       </c>
       <c r="B872" t="n">
@@ -23606,7 +23606,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>vérité</t>
+          <t>yven</t>
         </is>
       </c>
       <c r="B873" t="n">
@@ -23616,7 +23616,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>yssue</t>
+          <t>zéle</t>
         </is>
       </c>
       <c r="B874" t="n">
@@ -23626,7 +23626,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>yven</t>
+          <t>«</t>
         </is>
       </c>
       <c r="B875" t="n">
@@ -23636,7 +23636,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>zéle</t>
+          <t>»</t>
         </is>
       </c>
       <c r="B876" t="n">
@@ -23646,7 +23646,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>«</t>
+          <t>à</t>
         </is>
       </c>
       <c r="B877" t="n">
@@ -23656,7 +23656,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>»</t>
+          <t>échappé</t>
         </is>
       </c>
       <c r="B878" t="n">
@@ -23666,7 +23666,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>à</t>
+          <t>éclairée</t>
         </is>
       </c>
       <c r="B879" t="n">
@@ -23676,7 +23676,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>échappé</t>
+          <t>édict</t>
         </is>
       </c>
       <c r="B880" t="n">
@@ -23686,7 +23686,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>éclairée</t>
+          <t>église</t>
         </is>
       </c>
       <c r="B881" t="n">
@@ -23696,7 +23696,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>édict</t>
+          <t>époque</t>
         </is>
       </c>
       <c r="B882" t="n">
@@ -23706,7 +23706,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>église</t>
+          <t>étre</t>
         </is>
       </c>
       <c r="B883" t="n">
@@ -23716,7 +23716,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>époque</t>
+          <t>été</t>
         </is>
       </c>
       <c r="B884" t="n">
@@ -23726,7 +23726,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>étre</t>
+          <t>évidente</t>
         </is>
       </c>
       <c r="B885" t="n">
@@ -23736,7 +23736,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>été</t>
+          <t>évocations</t>
         </is>
       </c>
       <c r="B886" t="n">
@@ -23746,7 +23746,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>évidente</t>
+          <t>évoquer</t>
         </is>
       </c>
       <c r="B887" t="n">
@@ -23756,7 +23756,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>évocations</t>
+          <t>œil</t>
         </is>
       </c>
       <c r="B888" t="n">
@@ -23766,30 +23766,10 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>évoquer</t>
+          <t>’</t>
         </is>
       </c>
       <c r="B889" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="890">
-      <c r="A890" t="inlineStr">
-        <is>
-          <t>œil</t>
-        </is>
-      </c>
-      <c r="B890" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="891">
-      <c r="A891" t="inlineStr">
-        <is>
-          <t>’</t>
-        </is>
-      </c>
-      <c r="B891" t="n">
         <v>1</v>
       </c>
     </row>
